--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcan-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcan-Selp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H2">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I2">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J2">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.47780866666666</v>
+        <v>22.720324</v>
       </c>
       <c r="N2">
-        <v>91.433426</v>
+        <v>68.160972</v>
       </c>
       <c r="O2">
-        <v>0.9838017987059956</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P2">
-        <v>0.9848051540204799</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q2">
-        <v>98.86933064360646</v>
+        <v>76.47978385591867</v>
       </c>
       <c r="R2">
-        <v>889.8239757924581</v>
+        <v>688.318054703268</v>
       </c>
       <c r="S2">
-        <v>0.01223275013969281</v>
+        <v>0.0171004241462406</v>
       </c>
       <c r="T2">
-        <v>0.01230597430763283</v>
+        <v>0.01803460835743869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H3">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I3">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J3">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.133237</v>
       </c>
       <c r="O3">
-        <v>0.001433598258192696</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P3">
-        <v>0.001435060349879339</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q3">
-        <v>0.1440726174578889</v>
+        <v>0.1494981169225555</v>
       </c>
       <c r="R3">
-        <v>1.296653557121</v>
+        <v>1.345483052303</v>
       </c>
       <c r="S3">
-        <v>1.782559181761658E-05</v>
+        <v>3.342688851286713E-05</v>
       </c>
       <c r="T3">
-        <v>1.793229424462423E-05</v>
+        <v>3.525297605380479E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H4">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I4">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J4">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.00569</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N4">
-        <v>0.01707</v>
+        <v>0.019604</v>
       </c>
       <c r="O4">
-        <v>0.0001836691179428336</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P4">
-        <v>0.0001838564375694463</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q4">
-        <v>0.01845823292333333</v>
+        <v>0.02199660067511111</v>
       </c>
       <c r="R4">
-        <v>0.16612409631</v>
+        <v>0.197969406076</v>
       </c>
       <c r="S4">
-        <v>2.283771417299361E-06</v>
+        <v>4.918308896224377E-06</v>
       </c>
       <c r="T4">
-        <v>2.297441872420841E-06</v>
+        <v>5.186992671396002E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.243977666666667</v>
+        <v>3.366139666666667</v>
       </c>
       <c r="H5">
-        <v>9.731933000000001</v>
+        <v>10.098419</v>
       </c>
       <c r="I5">
-        <v>0.0124341611854976</v>
+        <v>0.01725116351498256</v>
       </c>
       <c r="J5">
-        <v>0.01249584677475898</v>
+        <v>0.01815407111703398</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,43 +744,43 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0946895</v>
+        <v>0.1493315</v>
       </c>
       <c r="N5">
-        <v>0.189379</v>
+        <v>0.298663</v>
       </c>
       <c r="O5">
-        <v>0.003056509128901219</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P5">
-        <v>0.002039750925041838</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q5">
-        <v>0.3071706232678334</v>
+        <v>0.5026706856328333</v>
       </c>
       <c r="R5">
-        <v>1.843023739607</v>
+        <v>3.016024113797</v>
       </c>
       <c r="S5">
-        <v>3.800512717370262E-05</v>
+        <v>0.0001123941713328704</v>
       </c>
       <c r="T5">
-        <v>2.54884150179957E-05</v>
+        <v>7.902279087008489E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.243977666666667</v>
+        <v>146.4311116666667</v>
       </c>
       <c r="H6">
-        <v>9.731933000000001</v>
+        <v>439.2933350000001</v>
       </c>
       <c r="I6">
-        <v>0.0124341611854976</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J6">
-        <v>0.01249584677475898</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3570223333333333</v>
+        <v>22.720324</v>
       </c>
       <c r="N6">
-        <v>1.071067</v>
+        <v>68.160972</v>
       </c>
       <c r="O6">
-        <v>0.0115244247889676</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P6">
-        <v>0.01153617826702954</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q6">
-        <v>1.158172475834556</v>
+        <v>3326.962300746847</v>
       </c>
       <c r="R6">
-        <v>10.423552282511</v>
+        <v>29942.66070672162</v>
       </c>
       <c r="S6">
-        <v>0.0001432965553961673</v>
+        <v>0.7438889546092869</v>
       </c>
       <c r="T6">
-        <v>0.0001441543159911056</v>
+        <v>0.784527087929122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I7">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J7">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>30.47780866666666</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N7">
-        <v>91.433426</v>
+        <v>0.133237</v>
       </c>
       <c r="O7">
-        <v>0.9838017987059956</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P7">
-        <v>0.9848051540204799</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q7">
-        <v>4462.899404223968</v>
+        <v>6.503347341710556</v>
       </c>
       <c r="R7">
-        <v>40166.09463801572</v>
+        <v>58.53012607539501</v>
       </c>
       <c r="S7">
-        <v>0.5521786478685551</v>
+        <v>0.001454109730789601</v>
       </c>
       <c r="T7">
-        <v>0.5554839407571284</v>
+        <v>0.001533546728388973</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I8">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J8">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.04441233333333333</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N8">
-        <v>0.133237</v>
+        <v>0.019604</v>
       </c>
       <c r="O8">
-        <v>0.001433598258192696</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P8">
-        <v>0.001435060349879339</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q8">
-        <v>6.503347341710556</v>
+        <v>0.9568785043711112</v>
       </c>
       <c r="R8">
-        <v>58.53012607539501</v>
+        <v>8.611906539340001</v>
       </c>
       <c r="S8">
-        <v>0.0008046360037527487</v>
+        <v>0.000213952334279512</v>
       </c>
       <c r="T8">
-        <v>0.0008094524842004445</v>
+        <v>0.0002256404006645109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>439.2933350000001</v>
       </c>
       <c r="I9">
-        <v>0.5612702158044854</v>
+        <v>0.7504462978934635</v>
       </c>
       <c r="J9">
-        <v>0.5640546645083628</v>
+        <v>0.7897238612132288</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.00569</v>
+        <v>0.1493315</v>
       </c>
       <c r="N9">
-        <v>0.01707</v>
+        <v>0.298663</v>
       </c>
       <c r="O9">
-        <v>0.0001836691179428336</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P9">
-        <v>0.0001838564375694463</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q9">
-        <v>0.8331930253833334</v>
+        <v>21.86677755185084</v>
       </c>
       <c r="R9">
-        <v>7.49873722845</v>
+        <v>131.200665311105</v>
       </c>
       <c r="S9">
-        <v>0.0001030880054643937</v>
+        <v>0.004889281219107471</v>
       </c>
       <c r="T9">
-        <v>0.0001037050812109368</v>
+        <v>0.003437586155053296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>146.4311116666667</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H10">
-        <v>439.2933350000001</v>
+        <v>44.676295</v>
       </c>
       <c r="I10">
-        <v>0.5612702158044854</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J10">
-        <v>0.5640546645083628</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0946895</v>
+        <v>22.720324</v>
       </c>
       <c r="N10">
-        <v>0.189379</v>
+        <v>68.160972</v>
       </c>
       <c r="O10">
-        <v>0.003056509128901219</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P10">
-        <v>0.002039750925041838</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q10">
-        <v>13.86548874816083</v>
+        <v>338.3532991731933</v>
       </c>
       <c r="R10">
-        <v>83.19293248896501</v>
+        <v>3045.17969255874</v>
       </c>
       <c r="S10">
-        <v>0.001715527538386767</v>
+        <v>0.07565378241708609</v>
       </c>
       <c r="T10">
-        <v>0.001150531023705097</v>
+        <v>0.07978669563883181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>146.4311116666667</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H11">
-        <v>439.2933350000001</v>
+        <v>44.676295</v>
       </c>
       <c r="I11">
-        <v>0.5612702158044854</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J11">
-        <v>0.5640546645083628</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3570223333333333</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N11">
-        <v>1.071067</v>
+        <v>0.133237</v>
       </c>
       <c r="O11">
-        <v>0.0115244247889676</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P11">
-        <v>0.01153617826702954</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q11">
-        <v>52.27917715982723</v>
+        <v>0.6613928352127777</v>
       </c>
       <c r="R11">
-        <v>470.5125944384451</v>
+        <v>5.952535516914999</v>
       </c>
       <c r="S11">
-        <v>0.006468316388326407</v>
+        <v>0.0001478834986083429</v>
       </c>
       <c r="T11">
-        <v>0.006507035162118012</v>
+        <v>0.0001559622707086841</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H12">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I12">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J12">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>30.47780866666666</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N12">
-        <v>91.433426</v>
+        <v>0.019604</v>
       </c>
       <c r="O12">
-        <v>0.9838017987059956</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P12">
-        <v>0.9848051540204799</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q12">
-        <v>181.8732652781971</v>
+        <v>0.09731489857555554</v>
       </c>
       <c r="R12">
-        <v>1636.859387503774</v>
+        <v>0.8758340871799999</v>
       </c>
       <c r="S12">
-        <v>0.02250253133864141</v>
+        <v>2.175903170078847E-05</v>
       </c>
       <c r="T12">
-        <v>0.02263722951484871</v>
+        <v>2.294771238449562E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.967399666666666</v>
+        <v>14.89209833333333</v>
       </c>
       <c r="H13">
-        <v>17.902199</v>
+        <v>44.676295</v>
       </c>
       <c r="I13">
-        <v>0.02287303333683595</v>
+        <v>0.07632066665966204</v>
       </c>
       <c r="J13">
-        <v>0.0229865059320942</v>
+        <v>0.08031520940808551</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.04441233333333333</v>
+        <v>0.1493315</v>
       </c>
       <c r="N13">
-        <v>0.133237</v>
+        <v>0.298663</v>
       </c>
       <c r="O13">
-        <v>0.001433598258192696</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P13">
-        <v>0.001435060349879339</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q13">
-        <v>0.2650261431292222</v>
+        <v>2.223859382264167</v>
       </c>
       <c r="R13">
-        <v>2.385235288163</v>
+        <v>13.343156293585</v>
       </c>
       <c r="S13">
-        <v>3.279074075127148E-05</v>
+        <v>0.0004972417122668273</v>
       </c>
       <c r="T13">
-        <v>3.298702324541461E-05</v>
+        <v>0.0003496037861605088</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.967399666666666</v>
+        <v>29.1141605</v>
       </c>
       <c r="H14">
-        <v>17.902199</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I14">
-        <v>0.02287303333683595</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J14">
-        <v>0.0229865059320942</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.00569</v>
+        <v>22.720324</v>
       </c>
       <c r="N14">
-        <v>0.01707</v>
+        <v>68.160972</v>
       </c>
       <c r="O14">
-        <v>0.0001836691179428336</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P14">
-        <v>0.0001838564375694463</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q14">
-        <v>0.03395450410333333</v>
+        <v>661.4831595480019</v>
       </c>
       <c r="R14">
-        <v>0.30559053693</v>
+        <v>3968.898957288012</v>
       </c>
       <c r="S14">
-        <v>4.201069857653686E-06</v>
+        <v>0.1479036945917151</v>
       </c>
       <c r="T14">
-        <v>4.226217092843785E-06</v>
+        <v>0.1039890466563353</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,117 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.967399666666666</v>
+        <v>29.1141605</v>
       </c>
       <c r="H15">
-        <v>17.902199</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I15">
-        <v>0.02287303333683595</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J15">
-        <v>0.0229865059320942</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.0946895</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N15">
-        <v>0.189379</v>
+        <v>0.133237</v>
       </c>
       <c r="O15">
-        <v>0.003056509128901219</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P15">
-        <v>0.002039750925041838</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q15">
-        <v>0.5650500907368333</v>
+        <v>1.293027800846166</v>
       </c>
       <c r="R15">
-        <v>3.390300544421</v>
+        <v>7.758166805076999</v>
       </c>
       <c r="S15">
-        <v>6.9911635199701E-05</v>
+        <v>0.0002891133148206328</v>
       </c>
       <c r="T15">
-        <v>4.688674673846886E-05</v>
+        <v>0.0002032715820037036</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.967399666666666</v>
+        <v>29.1141605</v>
       </c>
       <c r="H16">
-        <v>17.902199</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I16">
-        <v>0.02287303333683595</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J16">
-        <v>0.0229865059320942</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.3570223333333333</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N16">
-        <v>1.071067</v>
+        <v>0.019604</v>
       </c>
       <c r="O16">
-        <v>0.0115244247889676</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P16">
-        <v>0.01153617826702954</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q16">
-        <v>2.130494952925889</v>
+        <v>0.1902513341473333</v>
       </c>
       <c r="R16">
-        <v>19.174454576333</v>
+        <v>1.141508004884</v>
       </c>
       <c r="S16">
-        <v>0.0002635985523859145</v>
+        <v>4.253906515265043E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002651764301687707</v>
+        <v>2.990862968695337E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.8636755</v>
+        <v>29.1141605</v>
       </c>
       <c r="H17">
-        <v>7.727351000000001</v>
+        <v>58.22832099999999</v>
       </c>
       <c r="I17">
-        <v>0.01480946198523706</v>
+        <v>0.1492074581338761</v>
       </c>
       <c r="J17">
-        <v>0.00992195425829386</v>
+        <v>0.1046778788302885</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>30.47780866666666</v>
+        <v>0.1493315</v>
       </c>
       <c r="N17">
-        <v>91.433426</v>
+        <v>0.298663</v>
       </c>
       <c r="O17">
-        <v>0.9838017987059956</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P17">
-        <v>0.9848051540204799</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q17">
-        <v>117.7563626390877</v>
+        <v>4.34766125870575</v>
       </c>
       <c r="R17">
-        <v>706.538175834526</v>
+        <v>17.390645034823</v>
       </c>
       <c r="S17">
-        <v>0.01456957533894429</v>
+        <v>0.0009721111621877707</v>
       </c>
       <c r="T17">
-        <v>0.009771191691523242</v>
+        <v>0.0004556519622625257</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.8636755</v>
+        <v>1.32186</v>
       </c>
       <c r="H18">
-        <v>7.727351000000001</v>
+        <v>3.96558</v>
       </c>
       <c r="I18">
-        <v>0.01480946198523706</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J18">
-        <v>0.00992195425829386</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04441233333333333</v>
+        <v>22.720324</v>
       </c>
       <c r="N18">
-        <v>0.133237</v>
+        <v>68.160972</v>
       </c>
       <c r="O18">
-        <v>0.001433598258192696</v>
+        <v>0.9912620752443135</v>
       </c>
       <c r="P18">
-        <v>0.001435060349879339</v>
+        <v>0.993419505805329</v>
       </c>
       <c r="Q18">
-        <v>0.1715948441978333</v>
+        <v>30.03308748264</v>
       </c>
       <c r="R18">
-        <v>1.029569065187</v>
+        <v>270.29778734376</v>
       </c>
       <c r="S18">
-        <v>2.123081890680679E-05</v>
+        <v>0.006715219479984817</v>
       </c>
       <c r="T18">
-        <v>1.423860314939399E-05</v>
+        <v>0.007082067223601212</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,25 +1585,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.8636755</v>
+        <v>1.32186</v>
       </c>
       <c r="H19">
-        <v>7.727351000000001</v>
+        <v>3.96558</v>
       </c>
       <c r="I19">
-        <v>0.01480946198523706</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J19">
-        <v>0.00992195425829386</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,33 +1612,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.00569</v>
+        <v>0.04441233333333333</v>
       </c>
       <c r="N19">
-        <v>0.01707</v>
+        <v>0.133237</v>
       </c>
       <c r="O19">
-        <v>0.0001836691179428336</v>
+        <v>0.001937659942985065</v>
       </c>
       <c r="P19">
-        <v>0.0001838564375694463</v>
+        <v>0.001941877159483357</v>
       </c>
       <c r="Q19">
-        <v>0.021984313595</v>
+        <v>0.05870688694</v>
       </c>
       <c r="R19">
-        <v>0.13190588157</v>
+        <v>0.52836198246</v>
       </c>
       <c r="S19">
-        <v>2.720040820036416E-06</v>
+        <v>1.312651025362046E-05</v>
       </c>
       <c r="T19">
-        <v>1.824215163656907E-06</v>
+        <v>1.38436023281909E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.8636755</v>
+        <v>1.32186</v>
       </c>
       <c r="H20">
-        <v>7.727351000000001</v>
+        <v>3.96558</v>
       </c>
       <c r="I20">
-        <v>0.01480946198523706</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J20">
-        <v>0.00992195425829386</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.0946895</v>
+        <v>0.006534666666666667</v>
       </c>
       <c r="N20">
-        <v>0.189379</v>
+        <v>0.019604</v>
       </c>
       <c r="O20">
-        <v>0.003056509128901219</v>
+        <v>0.0002851001262583157</v>
       </c>
       <c r="P20">
-        <v>0.002039750925041838</v>
+        <v>0.0002857206319153968</v>
       </c>
       <c r="Q20">
-        <v>0.36584950125725</v>
+        <v>0.00863791448</v>
       </c>
       <c r="R20">
-        <v>1.463398005029</v>
+        <v>0.07774123032000001</v>
       </c>
       <c r="S20">
-        <v>4.526525575199265E-05</v>
+        <v>1.93138622914037E-06</v>
       </c>
       <c r="T20">
-        <v>2.023831537657771E-05</v>
+        <v>2.036896508040968E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.8636755</v>
+        <v>1.32186</v>
       </c>
       <c r="H21">
-        <v>7.727351000000001</v>
+        <v>3.96558</v>
       </c>
       <c r="I21">
-        <v>0.01480946198523706</v>
+        <v>0.006774413798015763</v>
       </c>
       <c r="J21">
-        <v>0.00992195425829386</v>
+        <v>0.007128979431363227</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M21">
-        <v>0.3570223333333333</v>
+        <v>0.1493315</v>
       </c>
       <c r="N21">
-        <v>1.071067</v>
+        <v>0.298663</v>
       </c>
       <c r="O21">
-        <v>0.0115244247889676</v>
+        <v>0.006515164686443125</v>
       </c>
       <c r="P21">
-        <v>0.01153617826702954</v>
+        <v>0.004352896403272198</v>
       </c>
       <c r="Q21">
-        <v>1.379418442252833</v>
+        <v>0.19739533659</v>
       </c>
       <c r="R21">
-        <v>8.276510653517001</v>
+        <v>1.18437201954</v>
       </c>
       <c r="S21">
-        <v>0.0001706705308139393</v>
+        <v>4.413642154818535E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001144614330809908</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>101.3861963333333</v>
-      </c>
-      <c r="H22">
-        <v>304.158589</v>
-      </c>
-      <c r="I22">
-        <v>0.388613127687944</v>
-      </c>
-      <c r="J22">
-        <v>0.3905410285264901</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>30.47780866666666</v>
-      </c>
-      <c r="N22">
-        <v>91.433426</v>
-      </c>
-      <c r="O22">
-        <v>0.9838017987059956</v>
-      </c>
-      <c r="P22">
-        <v>0.9848051540204799</v>
-      </c>
-      <c r="Q22">
-        <v>3090.029093288435</v>
-      </c>
-      <c r="R22">
-        <v>27810.26183959591</v>
-      </c>
-      <c r="S22">
-        <v>0.3823182940201621</v>
-      </c>
-      <c r="T22">
-        <v>0.3846068177493467</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>101.3861963333333</v>
-      </c>
-      <c r="H23">
-        <v>304.158589</v>
-      </c>
-      <c r="I23">
-        <v>0.388613127687944</v>
-      </c>
-      <c r="J23">
-        <v>0.3905410285264901</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.04441233333333333</v>
-      </c>
-      <c r="N23">
-        <v>0.133237</v>
-      </c>
-      <c r="O23">
-        <v>0.001433598258192696</v>
-      </c>
-      <c r="P23">
-        <v>0.001435060349879339</v>
-      </c>
-      <c r="Q23">
-        <v>4.502797546954778</v>
-      </c>
-      <c r="R23">
-        <v>40.525177922593</v>
-      </c>
-      <c r="S23">
-        <v>0.0005571151029642522</v>
-      </c>
-      <c r="T23">
-        <v>0.0005604499450394619</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>101.3861963333333</v>
-      </c>
-      <c r="H24">
-        <v>304.158589</v>
-      </c>
-      <c r="I24">
-        <v>0.388613127687944</v>
-      </c>
-      <c r="J24">
-        <v>0.3905410285264901</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.00569</v>
-      </c>
-      <c r="N24">
-        <v>0.01707</v>
-      </c>
-      <c r="O24">
-        <v>0.0001836691179428336</v>
-      </c>
-      <c r="P24">
-        <v>0.0001838564375694463</v>
-      </c>
-      <c r="Q24">
-        <v>0.5768874571366667</v>
-      </c>
-      <c r="R24">
-        <v>5.19198711423</v>
-      </c>
-      <c r="S24">
-        <v>7.137623038345042E-05</v>
-      </c>
-      <c r="T24">
-        <v>7.180348222958798E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>101.3861963333333</v>
-      </c>
-      <c r="H25">
-        <v>304.158589</v>
-      </c>
-      <c r="I25">
-        <v>0.388613127687944</v>
-      </c>
-      <c r="J25">
-        <v>0.3905410285264901</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.5</v>
-      </c>
-      <c r="M25">
-        <v>0.0946895</v>
-      </c>
-      <c r="N25">
-        <v>0.189379</v>
-      </c>
-      <c r="O25">
-        <v>0.003056509128901219</v>
-      </c>
-      <c r="P25">
-        <v>0.002039750925041838</v>
-      </c>
-      <c r="Q25">
-        <v>9.600208237705166</v>
-      </c>
-      <c r="R25">
-        <v>57.601249426231</v>
-      </c>
-      <c r="S25">
-        <v>0.001187799572389056</v>
-      </c>
-      <c r="T25">
-        <v>0.0007966064242036991</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>101.3861963333333</v>
-      </c>
-      <c r="H26">
-        <v>304.158589</v>
-      </c>
-      <c r="I26">
-        <v>0.388613127687944</v>
-      </c>
-      <c r="J26">
-        <v>0.3905410285264901</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.3570223333333333</v>
-      </c>
-      <c r="N26">
-        <v>1.071067</v>
-      </c>
-      <c r="O26">
-        <v>0.0115244247889676</v>
-      </c>
-      <c r="P26">
-        <v>0.01153617826702954</v>
-      </c>
-      <c r="Q26">
-        <v>36.19713638271811</v>
-      </c>
-      <c r="R26">
-        <v>325.774227444463</v>
-      </c>
-      <c r="S26">
-        <v>0.004478542762045174</v>
-      </c>
-      <c r="T26">
-        <v>0.004505350925670658</v>
+        <v>3.103170892578247E-05</v>
       </c>
     </row>
   </sheetData>
